--- a/Figures_Tables/ranova_PVE/2019_2020_PVE_All.xlsx
+++ b/Figures_Tables/ranova_PVE/2019_2020_PVE_All.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbrei\Documents\R_Projects\chapter_two\Figures_Tables\ranova_PVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32426D6-7F90-4BE6-B54A-319FA88877CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3EDDD3-7E61-4E0D-A9A7-EDBEAD6E79D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="42">
   <si>
     <t>Group</t>
   </si>
@@ -530,7 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -607,6 +607,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -637,12 +641,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,11 +653,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,7 +1215,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="N7" s="86" t="s">
+      <c r="N7" s="69" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2704,10 +2703,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E113D0C-DEAC-4D25-B90A-A8F8760B4604}">
-  <dimension ref="A2:M127"/>
+  <dimension ref="A2:M112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2732,16 +2731,16 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C3" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="83" t="s">
+      <c r="C3" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="66" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2789,7 +2788,7 @@
       <c r="E6" s="11">
         <v>0.90595307199999997</v>
       </c>
-      <c r="M6" s="86" t="s">
+      <c r="M6" s="69" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2805,16 +2804,16 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="83" t="s">
+      <c r="C9" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="F9" s="66" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2872,7 +2871,7 @@
       <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="66" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="12"/>
@@ -2900,16 +2899,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="83" t="s">
+      <c r="C18" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="82" t="s">
+      <c r="F18" s="66" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2973,16 +2972,16 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C24" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="83" t="s">
+      <c r="C24" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="82" t="s">
+      <c r="F24" s="66" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3041,7 +3040,7 @@
       <c r="C29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="82" t="s">
+      <c r="D29" s="66" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="12"/>
@@ -3069,16 +3068,16 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C34" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="83" t="s">
+      <c r="C34" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="82" t="s">
+      <c r="F34" s="66" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3095,7 +3094,7 @@
       <c r="E35" s="12">
         <v>0.10939315729933</v>
       </c>
-      <c r="F35" s="85" t="s">
+      <c r="F35" s="68" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3139,16 +3138,16 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C40" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="83" t="s">
+      <c r="C40" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="82" t="s">
+      <c r="F40" s="66" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3206,7 +3205,7 @@
       <c r="C45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="82" t="s">
+      <c r="D45" s="66" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="12"/>
@@ -3230,38 +3229,38 @@
         <v>13</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C50" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="83" t="s">
+      <c r="C50" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F50" s="82" t="s">
+      <c r="F50" s="66" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="E51" s="11">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
+      <c r="D51" s="4">
+        <v>2.0333907596472098E-5</v>
+      </c>
+      <c r="E51" s="12">
+        <v>7.9550613067627493E-2</v>
+      </c>
+      <c r="F51" s="4">
+        <v>7.9121335832738199E-3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3272,13 +3271,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>1.9756837515539299E-6</v>
       </c>
       <c r="E52" s="11">
-        <v>0</v>
+        <v>7.7292990989657603E-3</v>
       </c>
       <c r="F52" s="1">
-        <v>1</v>
+        <v>0.64501010841093898</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3286,10 +3285,10 @@
         <v>4</v>
       </c>
       <c r="D53" s="1">
-        <v>139.45854220499501</v>
+        <v>2.33300099292395E-4</v>
       </c>
       <c r="E53" s="11">
-        <v>1</v>
+        <v>0.91272008783340697</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -3300,38 +3299,38 @@
         <v>13</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C56" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" s="83" t="s">
+      <c r="C56" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F56" s="82" t="s">
+      <c r="F56" s="66" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="1">
-        <v>1.8544222161419801</v>
-      </c>
-      <c r="E57" s="11">
-        <v>1.6681916838342001E-2</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0.74759777594751398</v>
+      <c r="D57" s="4">
+        <v>1.96126702482657E-5</v>
+      </c>
+      <c r="E57" s="12">
+        <v>7.7339227936591703E-2</v>
+      </c>
+      <c r="F57" s="4">
+        <v>3.2121049602536797E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3342,13 +3341,13 @@
         <v>3</v>
       </c>
       <c r="D58" s="1">
-        <v>5.8355125577510497E-6</v>
+        <v>2.1845712254236701E-6</v>
       </c>
       <c r="E58" s="11">
-        <v>5.2494806387743598E-8</v>
+        <v>8.6144849124611504E-3</v>
       </c>
       <c r="F58" s="1">
-        <v>1</v>
+        <v>0.64717230983153695</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3356,10 +3355,10 @@
         <v>4</v>
       </c>
       <c r="D59" s="1">
-        <v>109.30918906216201</v>
+        <v>2.3179554412206999E-4</v>
       </c>
       <c r="E59" s="11">
-        <v>0.98331803066685197</v>
+        <v>0.91404628715094705</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -3371,677 +3370,514 @@
       <c r="C61" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="82" t="s">
+      <c r="D61" s="66" t="s">
         <v>8</v>
       </c>
       <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C62" s="1">
-        <v>2.0144072889008</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0.155812106094359</v>
-      </c>
-      <c r="E62" s="12"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="4">
+        <v>9.1162724615104604</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2.5334566690482499E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>10</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C65" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E65" s="83" t="s">
+      <c r="C66" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C67" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F65" s="82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
+      <c r="F67" s="66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="4">
-        <v>2.0333907596472098E-5</v>
-      </c>
-      <c r="E66" s="12">
-        <v>7.9550613067627493E-2</v>
-      </c>
-      <c r="F66" s="4">
-        <v>7.9121335832738199E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
+      <c r="D68" s="4">
+        <v>0.245723158179663</v>
+      </c>
+      <c r="E68" s="12">
+        <v>5.6088439068748497E-2</v>
+      </c>
+      <c r="F68" s="4">
+        <v>4.5453385163978198E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="1">
-        <v>1.9756837515539299E-6</v>
-      </c>
-      <c r="E67" s="11">
-        <v>7.7292990989657603E-3</v>
-      </c>
-      <c r="F67" s="1">
-        <v>0.64501010841093898</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C68" s="1" t="s">
+      <c r="D69" s="1">
+        <v>9.7883362437808805E-2</v>
+      </c>
+      <c r="E69" s="11">
+        <v>2.2342725246609001E-2</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.17667658839320299</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="1">
-        <v>2.33300099292395E-4</v>
-      </c>
-      <c r="E68" s="11">
-        <v>0.91272008783340697</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="D70" s="1">
+        <v>4.0373882487052501</v>
+      </c>
+      <c r="E70" s="11">
+        <v>0.92156883568464298</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>11</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C71" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E71" s="83" t="s">
+      <c r="C72" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C73" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F71" s="82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+      <c r="F73" s="66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="4">
-        <v>1.96126702482657E-5</v>
-      </c>
-      <c r="E72" s="12">
-        <v>7.7339227936591703E-2</v>
-      </c>
-      <c r="F72" s="4">
-        <v>3.2121049602536797E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="1">
-        <v>2.1845712254236701E-6</v>
-      </c>
-      <c r="E73" s="11">
-        <v>8.6144849124611504E-3</v>
-      </c>
-      <c r="F73" s="1">
-        <v>0.64717230983153695</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="1">
-        <v>2.3179554412206999E-4</v>
-      </c>
-      <c r="E74" s="11">
-        <v>0.91404628715094705</v>
+      <c r="D74" s="4">
+        <v>0.33800426302070102</v>
+      </c>
+      <c r="E74" s="12">
+        <v>7.2009099967587795E-2</v>
+      </c>
+      <c r="F74" s="4">
+        <v>3.6760923246975503E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C76" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1">
+        <v>7.5453122078170301E-2</v>
+      </c>
+      <c r="E75" s="11">
+        <v>1.6074683088422501E-2</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.42674233087998298</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="1">
+        <v>4.2804530119598496</v>
+      </c>
+      <c r="E76" s="11">
+        <v>0.91191621694399005</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="12"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="4">
-        <v>9.1162724615104604</v>
-      </c>
-      <c r="D77" s="4">
-        <v>2.5334566690482499E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="C79" s="4">
+        <v>5.8869673558654796</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1.52533462997322E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>10</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C82" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E82" s="83" t="s">
+      <c r="C83" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C84" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F82" s="82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
+      <c r="F84" s="66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="4">
-        <v>0.245723158179663</v>
-      </c>
-      <c r="E83" s="12">
-        <v>5.6088439068748497E-2</v>
-      </c>
-      <c r="F83" s="4">
-        <v>4.5453385163978198E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
+      <c r="D85" s="4">
+        <v>0.14885883450706699</v>
+      </c>
+      <c r="E85" s="12">
+        <v>7.6278263813371203E-2</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1.2733827373075501E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D84" s="1">
-        <v>9.7883362437808805E-2</v>
-      </c>
-      <c r="E84" s="11">
-        <v>2.2342725246609001E-2</v>
-      </c>
-      <c r="F84" s="1">
-        <v>0.17667658839320299</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C85" s="1" t="s">
+      <c r="D86" s="1">
+        <v>1.9659644007783202E-2</v>
+      </c>
+      <c r="E86" s="11">
+        <v>1.00739974020921E-2</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.57060192602450299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="1">
-        <v>4.0373882487052501</v>
-      </c>
-      <c r="E85" s="11">
-        <v>0.92156883568464298</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="D87" s="1">
+        <v>1.7830051543680101</v>
+      </c>
+      <c r="E87" s="11">
+        <v>0.91364773878453698</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>11</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B89" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C88" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E88" s="83" t="s">
+      <c r="C89" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C90" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F88" s="82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
+      <c r="F90" s="66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D89" s="4">
-        <v>0.33800426302070102</v>
-      </c>
-      <c r="E89" s="12">
-        <v>7.2009099967587795E-2</v>
-      </c>
-      <c r="F89" s="4">
-        <v>3.6760923246975503E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" s="1">
-        <v>7.5453122078170301E-2</v>
-      </c>
-      <c r="E90" s="11">
-        <v>1.6074683088422501E-2</v>
-      </c>
-      <c r="F90" s="1">
-        <v>0.42674233087998298</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C91" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" s="1">
-        <v>4.2804530119598496</v>
-      </c>
-      <c r="E91" s="11">
-        <v>0.91191621694399005</v>
+      <c r="D91" s="4">
+        <v>0.17864087030591899</v>
+      </c>
+      <c r="E91" s="12">
+        <v>7.9128109656400797E-2</v>
+      </c>
+      <c r="F91" s="4">
+        <v>3.51154997196974E-2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C93" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1.3029234944463499E-2</v>
+      </c>
+      <c r="E92" s="11">
+        <v>5.7712366137658497E-3</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0.78586994844497404</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2.0659456912299601</v>
+      </c>
+      <c r="E93" s="11">
+        <v>0.91510065372983296</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>14</v>
-      </c>
-      <c r="C94" s="4">
-        <v>5.8869673558654796</v>
-      </c>
-      <c r="D94" s="4">
-        <v>1.52533462997322E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C95" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="12"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="9">
+        <v>2.95703412277008</v>
+      </c>
+      <c r="D96" s="9">
+        <v>8.5504649253308904E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>10</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C99" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D99" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E99" s="83" t="s">
+      <c r="C99" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C100" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F99" s="82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="4">
-        <v>0.14885883450706699</v>
-      </c>
-      <c r="E100" s="12">
-        <v>7.6278263813371203E-2</v>
-      </c>
-      <c r="F100" s="4">
-        <v>1.2733827373075501E-2</v>
+      <c r="F100" s="66" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0.13915490094109101</v>
+      </c>
+      <c r="E101" s="12">
+        <v>8.3376391082875201E-2</v>
+      </c>
+      <c r="F101" s="4">
+        <v>2.5852583564641299E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D101" s="1">
-        <v>1.9659644007783202E-2</v>
-      </c>
-      <c r="E101" s="11">
-        <v>1.00739974020921E-2</v>
-      </c>
-      <c r="F101" s="1">
-        <v>0.57060192602450299</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
+      <c r="E102" s="11">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C103" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D102" s="1">
-        <v>1.7830051543680101</v>
-      </c>
-      <c r="E102" s="11">
-        <v>0.91364773878453698</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="D103" s="1">
+        <v>1.52984155157714</v>
+      </c>
+      <c r="E103" s="11">
+        <v>0.91662360891712502</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>11</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>13</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C105" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D105" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E105" s="83" t="s">
+      <c r="C105" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C106" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F105" s="82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
-        <v>14</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" s="4">
-        <v>0.17864087030591899</v>
-      </c>
-      <c r="E106" s="12">
-        <v>7.9128109656400797E-2</v>
-      </c>
-      <c r="F106" s="4">
-        <v>3.51154997196974E-2</v>
+      <c r="F106" s="66" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0.152029635203904</v>
+      </c>
+      <c r="E107" s="12">
+        <v>9.3418114805219804E-2</v>
+      </c>
+      <c r="F107" s="4">
+        <v>5.9721380767463004E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D107" s="1">
-        <v>1.3029234944463499E-2</v>
-      </c>
-      <c r="E107" s="11">
-        <v>5.7712366137658497E-3</v>
-      </c>
-      <c r="F107" s="1">
-        <v>0.78586994844497404</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1">
+        <v>1.9797624200162401E-8</v>
+      </c>
+      <c r="E108" s="11">
+        <v>1.21651066775294E-8</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C109" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D108" s="1">
-        <v>2.0659456912299601</v>
-      </c>
-      <c r="E108" s="11">
-        <v>0.91510065372983296</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
+      <c r="D109" s="1">
+        <v>1.47538099785623</v>
+      </c>
+      <c r="E109" s="11">
+        <v>0.90658187302967397</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C110" s="4" t="s">
+    <row r="111" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C111" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D110" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="12"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>18</v>
-      </c>
-      <c r="C111" s="9">
-        <v>2.95703412277008</v>
-      </c>
-      <c r="D111" s="9">
-        <v>8.5504649253308904E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C115" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D115" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E115" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="F115" s="82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
-        <v>14</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" s="4">
-        <v>0.13915490094109101</v>
-      </c>
-      <c r="E116" s="12">
-        <v>8.3376391082875201E-2</v>
-      </c>
-      <c r="F116" s="4">
-        <v>2.5852583564641299E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
+      <c r="D111" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="12"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
         <v>16</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="1">
-        <v>0</v>
-      </c>
-      <c r="E117" s="11">
-        <v>0</v>
-      </c>
-      <c r="F117" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D118" s="1">
-        <v>1.52984155157714</v>
-      </c>
-      <c r="E118" s="11">
-        <v>0.91662360891712502</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>11</v>
-      </c>
-      <c r="B120" t="s">
-        <v>13</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C121" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D121" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E121" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="F121" s="82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
-        <v>14</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D122" s="4">
-        <v>0.152029635203904</v>
-      </c>
-      <c r="E122" s="12">
-        <v>9.3418114805219804E-2</v>
-      </c>
-      <c r="F122" s="4">
-        <v>5.9721380767463004E-3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B123" t="s">
-        <v>16</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D123" s="1">
-        <v>1.9797624200162401E-8</v>
-      </c>
-      <c r="E123" s="11">
-        <v>1.21651066775294E-8</v>
-      </c>
-      <c r="F123" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D124" s="1">
-        <v>1.47538099785623</v>
-      </c>
-      <c r="E124" s="11">
-        <v>0.90658187302967397</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B125" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C126" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="12"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" s="1">
+      <c r="C112" s="1">
         <v>6.9809500004895997E-2</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D112" s="1">
         <v>0.79161434987560597</v>
       </c>
     </row>
@@ -4055,7 +3891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77878847-70DC-4035-AFE6-61B1D9B32069}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B24" sqref="B24:B26"/>
     </sheetView>
   </sheetViews>
@@ -4079,30 +3915,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
-      <c r="H1" s="73" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="H1" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="66" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="67"/>
+      <c r="N1" s="71"/>
       <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="64" t="s">
         <v>6</v>
       </c>
@@ -4112,8 +3948,8 @@
       <c r="F2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83"/>
       <c r="J2" s="62" t="s">
         <v>6</v>
       </c>
@@ -4123,16 +3959,16 @@
       <c r="L2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="76" t="s">
+      <c r="M2" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="77"/>
+      <c r="N2" s="85"/>
       <c r="O2" s="37"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="74" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="57" t="s">
@@ -4141,7 +3977,7 @@
       <c r="D3" s="48"/>
       <c r="E3" s="18"/>
       <c r="F3" s="19"/>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="74" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="57" t="s">
@@ -4160,14 +3996,14 @@
     </row>
     <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="71"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
-      <c r="H4" s="71"/>
+      <c r="H4" s="75"/>
       <c r="I4" s="58" t="s">
         <v>26</v>
       </c>
@@ -4184,14 +4020,14 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="71"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="49"/>
       <c r="E5" s="20"/>
       <c r="F5" s="21"/>
-      <c r="H5" s="72"/>
+      <c r="H5" s="76"/>
       <c r="I5" s="59" t="s">
         <v>8</v>
       </c>
@@ -4203,7 +4039,7 @@
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="74" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="57" t="s">
@@ -4212,7 +4048,7 @@
       <c r="D6" s="50"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="74" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="57" t="s">
@@ -4230,14 +4066,14 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="71"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="51"/>
       <c r="E7" s="22"/>
       <c r="F7" s="23"/>
-      <c r="H7" s="71"/>
+      <c r="H7" s="75"/>
       <c r="I7" s="58" t="s">
         <v>26</v>
       </c>
@@ -4254,14 +4090,14 @@
     </row>
     <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="72"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="24"/>
       <c r="F8" s="25"/>
-      <c r="H8" s="72"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="59" t="s">
         <v>8</v>
       </c>
@@ -4274,7 +4110,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="74" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="57" t="s">
@@ -4283,7 +4119,7 @@
       <c r="D9" s="43"/>
       <c r="E9" s="27"/>
       <c r="F9" s="17"/>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="74" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="57" t="s">
@@ -4301,14 +4137,14 @@
       <c r="O9" s="39"/>
     </row>
     <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="71"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="41"/>
       <c r="E10" s="22"/>
       <c r="F10" s="23"/>
-      <c r="H10" s="71"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="58" t="s">
         <v>26</v>
       </c>
@@ -4324,14 +4160,14 @@
       <c r="O10" s="39"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="72"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="28"/>
       <c r="F11" s="25"/>
-      <c r="H11" s="72"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="59" t="s">
         <v>8</v>
       </c>
@@ -4344,7 +4180,7 @@
     </row>
     <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="74" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="57" t="s">
@@ -4353,7 +4189,7 @@
       <c r="D12" s="38"/>
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
-      <c r="H12" s="70" t="s">
+      <c r="H12" s="74" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="57" t="s">
@@ -4371,14 +4207,14 @@
       <c r="O12" s="39"/>
     </row>
     <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="71"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="22"/>
       <c r="F13" s="23"/>
-      <c r="H13" s="71"/>
+      <c r="H13" s="75"/>
       <c r="I13" s="58" t="s">
         <v>26</v>
       </c>
@@ -4395,14 +4231,14 @@
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="72"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="24"/>
       <c r="F14" s="25"/>
-      <c r="H14" s="72"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="59" t="s">
         <v>8</v>
       </c>
@@ -4415,7 +4251,7 @@
     </row>
     <row r="15" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="74" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="57" t="s">
@@ -4424,7 +4260,7 @@
       <c r="D15" s="54"/>
       <c r="E15" s="30"/>
       <c r="F15" s="17"/>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="74" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="57" t="s">
@@ -4443,14 +4279,14 @@
     </row>
     <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" s="71"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="22"/>
       <c r="F16" s="23"/>
-      <c r="H16" s="71"/>
+      <c r="H16" s="75"/>
       <c r="I16" s="58" t="s">
         <v>26</v>
       </c>
@@ -4466,14 +4302,14 @@
       <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="72"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="28"/>
       <c r="F17" s="25"/>
-      <c r="H17" s="72"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="59" t="s">
         <v>8</v>
       </c>
@@ -4486,7 +4322,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="74" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="57" t="s">
@@ -4495,7 +4331,7 @@
       <c r="D18" s="56"/>
       <c r="E18" s="33"/>
       <c r="F18" s="17"/>
-      <c r="H18" s="70" t="s">
+      <c r="H18" s="74" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="57" t="s">
@@ -4513,14 +4349,14 @@
       <c r="O18" s="39"/>
     </row>
     <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="71"/>
+      <c r="B19" s="75"/>
       <c r="C19" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
-      <c r="H19" s="71"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="58" t="s">
         <v>26</v>
       </c>
@@ -4536,14 +4372,14 @@
       <c r="O19" s="39"/>
     </row>
     <row r="20" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="72"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="35"/>
       <c r="F20" s="25"/>
-      <c r="H20" s="72"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="59" t="s">
         <v>8</v>
       </c>
@@ -4556,7 +4392,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="74" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="57" t="s">
@@ -4565,7 +4401,7 @@
       <c r="D21" s="56"/>
       <c r="E21" s="33"/>
       <c r="F21" s="26"/>
-      <c r="H21" s="70" t="s">
+      <c r="H21" s="74" t="s">
         <v>27</v>
       </c>
       <c r="I21" s="57" t="s">
@@ -4584,14 +4420,14 @@
     </row>
     <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
-      <c r="B22" s="71"/>
+      <c r="B22" s="75"/>
       <c r="C22" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="22"/>
       <c r="F22" s="23"/>
-      <c r="H22" s="71"/>
+      <c r="H22" s="75"/>
       <c r="I22" s="58" t="s">
         <v>26</v>
       </c>
@@ -4607,14 +4443,14 @@
       <c r="O22" s="39"/>
     </row>
     <row r="23" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="72"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="42"/>
       <c r="E23" s="35"/>
       <c r="F23" s="25"/>
-      <c r="H23" s="72"/>
+      <c r="H23" s="76"/>
       <c r="I23" s="59" t="s">
         <v>8</v>
       </c>
@@ -4627,7 +4463,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="74" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="57" t="s">
@@ -4636,7 +4472,7 @@
       <c r="D24" s="50"/>
       <c r="E24" s="16"/>
       <c r="F24" s="17"/>
-      <c r="H24" s="70" t="s">
+      <c r="H24" s="74" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="57" t="s">
@@ -4655,14 +4491,14 @@
     </row>
     <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="71"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="22"/>
       <c r="F25" s="23"/>
-      <c r="H25" s="71"/>
+      <c r="H25" s="75"/>
       <c r="I25" s="58" t="s">
         <v>26</v>
       </c>
@@ -4678,14 +4514,14 @@
       <c r="O25" s="39"/>
     </row>
     <row r="26" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="72"/>
+      <c r="B26" s="76"/>
       <c r="C26" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="52"/>
       <c r="E26" s="24"/>
       <c r="F26" s="25"/>
-      <c r="H26" s="72"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="59" t="s">
         <v>8</v>
       </c>
@@ -4697,7 +4533,7 @@
       <c r="O26" s="39"/>
     </row>
     <row r="27" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="74" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="57" t="s">
@@ -4706,7 +4542,7 @@
       <c r="D27" s="54"/>
       <c r="E27" s="16"/>
       <c r="F27" s="17"/>
-      <c r="H27" s="70" t="s">
+      <c r="H27" s="74" t="s">
         <v>32</v>
       </c>
       <c r="I27" s="57" t="s">
@@ -4723,14 +4559,14 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="71"/>
+      <c r="B28" s="75"/>
       <c r="C28" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="22"/>
       <c r="F28" s="23"/>
-      <c r="H28" s="71"/>
+      <c r="H28" s="75"/>
       <c r="I28" s="58" t="s">
         <v>26</v>
       </c>
@@ -4745,14 +4581,14 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="72"/>
+      <c r="B29" s="76"/>
       <c r="C29" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="55"/>
       <c r="E29" s="24"/>
       <c r="F29" s="25"/>
-      <c r="H29" s="72"/>
+      <c r="H29" s="76"/>
       <c r="I29" s="59" t="s">
         <v>8</v>
       </c>
@@ -4805,19 +4641,37 @@
       <c r="C39" s="1"/>
     </row>
     <row r="70" spans="17:18" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q70" s="66" t="s">
+      <c r="Q70" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="R70" s="67"/>
+      <c r="R70" s="71"/>
     </row>
     <row r="71" spans="17:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q71" s="68" t="s">
+      <c r="Q71" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="R71" s="69"/>
+      <c r="R71" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="H18:H20"/>
     <mergeCell ref="Q70:R70"/>
     <mergeCell ref="Q71:R71"/>
     <mergeCell ref="B21:B23"/>
@@ -4826,24 +4680,6 @@
     <mergeCell ref="H24:H26"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="H27:H29"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4878,30 +4714,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
-      <c r="H1" s="73" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="H1" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="66" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="67"/>
+      <c r="N1" s="71"/>
       <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="64" t="s">
         <v>6</v>
       </c>
@@ -4911,8 +4747,8 @@
       <c r="F2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83"/>
       <c r="J2" s="62" t="s">
         <v>6</v>
       </c>
@@ -4922,16 +4758,16 @@
       <c r="L2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="76" t="s">
+      <c r="M2" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="77"/>
+      <c r="N2" s="85"/>
       <c r="O2" s="37"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="74" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="57" t="s">
@@ -4946,7 +4782,7 @@
       <c r="F3" s="19">
         <v>921.24755427567402</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="74" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="57" t="s">
@@ -4971,7 +4807,7 @@
     </row>
     <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="71"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="58" t="s">
         <v>26</v>
       </c>
@@ -4984,7 +4820,7 @@
       <c r="F4" s="19">
         <v>0.88365008222176999</v>
       </c>
-      <c r="H4" s="71"/>
+      <c r="H4" s="75"/>
       <c r="I4" s="58" t="s">
         <v>26</v>
       </c>
@@ -5007,7 +4843,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="71"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="59" t="s">
         <v>8</v>
       </c>
@@ -5018,7 +4854,7 @@
         <v>0.79796923089905303</v>
       </c>
       <c r="F5" s="21"/>
-      <c r="H5" s="72"/>
+      <c r="H5" s="76"/>
       <c r="I5" s="59" t="s">
         <v>8</v>
       </c>
@@ -5034,7 +4870,7 @@
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="74" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="57" t="s">
@@ -5049,7 +4885,7 @@
       <c r="F6" s="17">
         <v>4355.7927582254097</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="74" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="57" t="s">
@@ -5073,7 +4909,7 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="71"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="58" t="s">
         <v>26</v>
       </c>
@@ -5086,7 +4922,7 @@
       <c r="F7" s="23">
         <v>0.93810572603869102</v>
       </c>
-      <c r="H7" s="71"/>
+      <c r="H7" s="75"/>
       <c r="I7" s="58" t="s">
         <v>26</v>
       </c>
@@ -5109,7 +4945,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="72"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="59" t="s">
         <v>8</v>
       </c>
@@ -5120,7 +4956,7 @@
         <v>0.57740693299851797</v>
       </c>
       <c r="F8" s="25"/>
-      <c r="H8" s="72"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="59" t="s">
         <v>8</v>
       </c>
@@ -5137,7 +4973,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="74" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="57" t="s">
@@ -5152,7 +4988,7 @@
       <c r="F9" s="17">
         <v>1.52697992387702E-2</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="74" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="57" t="s">
@@ -5176,7 +5012,7 @@
       <c r="O9" s="39"/>
     </row>
     <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="71"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="58" t="s">
         <v>26</v>
       </c>
@@ -5189,7 +5025,7 @@
       <c r="F10" s="23">
         <v>0.98768146963247405</v>
       </c>
-      <c r="H10" s="71"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="58" t="s">
         <v>26</v>
       </c>
@@ -5211,7 +5047,7 @@
       <c r="O10" s="39"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="72"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="59" t="s">
         <v>8</v>
       </c>
@@ -5222,7 +5058,7 @@
         <v>0.999982379273889</v>
       </c>
       <c r="F11" s="25"/>
-      <c r="H11" s="72"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="59" t="s">
         <v>8</v>
       </c>
@@ -5239,7 +5075,7 @@
     </row>
     <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="74" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="57" t="s">
@@ -5254,7 +5090,7 @@
       <c r="F12" s="17">
         <v>42.872105325543203</v>
       </c>
-      <c r="H12" s="70" t="s">
+      <c r="H12" s="74" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="57" t="s">
@@ -5278,7 +5114,7 @@
       <c r="O12" s="39"/>
     </row>
     <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="71"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="58" t="s">
         <v>26</v>
       </c>
@@ -5291,7 +5127,7 @@
       <c r="F13" s="23">
         <v>0.98375453001832602</v>
       </c>
-      <c r="H13" s="71"/>
+      <c r="H13" s="75"/>
       <c r="I13" s="58" t="s">
         <v>26</v>
       </c>
@@ -5314,7 +5150,7 @@
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="72"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="59" t="s">
         <v>8</v>
       </c>
@@ -5325,7 +5161,7 @@
         <v>0.86114869475585598</v>
       </c>
       <c r="F14" s="25"/>
-      <c r="H14" s="72"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="59" t="s">
         <v>8</v>
       </c>
@@ -5342,7 +5178,7 @@
     </row>
     <row r="15" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="74" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="57" t="s">
@@ -5357,7 +5193,7 @@
       <c r="F15" s="17">
         <v>65.182065859908803</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="74" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="57" t="s">
@@ -5382,7 +5218,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" s="71"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="58" t="s">
         <v>26</v>
       </c>
@@ -5395,7 +5231,7 @@
       <c r="F16" s="23">
         <v>0.99999999999998301</v>
       </c>
-      <c r="H16" s="71"/>
+      <c r="H16" s="75"/>
       <c r="I16" s="58" t="s">
         <v>26</v>
       </c>
@@ -5417,7 +5253,7 @@
       <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="72"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="59" t="s">
         <v>8</v>
       </c>
@@ -5428,7 +5264,7 @@
         <v>0.999998682044413</v>
       </c>
       <c r="F17" s="25"/>
-      <c r="H17" s="72"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="59" t="s">
         <v>8</v>
       </c>
@@ -5445,7 +5281,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="74" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="57" t="s">
@@ -5460,7 +5296,7 @@
       <c r="F18" s="17">
         <v>402.71211179796398</v>
       </c>
-      <c r="H18" s="70" t="s">
+      <c r="H18" s="74" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="57" t="s">
@@ -5484,7 +5320,7 @@
       <c r="O18" s="39"/>
     </row>
     <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="71"/>
+      <c r="B19" s="75"/>
       <c r="C19" s="58" t="s">
         <v>26</v>
       </c>
@@ -5497,7 +5333,7 @@
       <c r="F19" s="23">
         <v>1</v>
       </c>
-      <c r="H19" s="71"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="58" t="s">
         <v>26</v>
       </c>
@@ -5519,7 +5355,7 @@
       <c r="O19" s="39"/>
     </row>
     <row r="20" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="72"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="59" t="s">
         <v>8</v>
       </c>
@@ -5530,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="25"/>
-      <c r="H20" s="72"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="59" t="s">
         <v>8</v>
       </c>
@@ -5547,7 +5383,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="74" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="57" t="s">
@@ -5562,7 +5398,7 @@
       <c r="F21" s="26">
         <v>1.6023121272854099E-4</v>
       </c>
-      <c r="H21" s="70" t="s">
+      <c r="H21" s="74" t="s">
         <v>27</v>
       </c>
       <c r="I21" s="57" t="s">
@@ -5587,7 +5423,7 @@
     </row>
     <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
-      <c r="B22" s="71"/>
+      <c r="B22" s="75"/>
       <c r="C22" s="58" t="s">
         <v>26</v>
       </c>
@@ -5600,7 +5436,7 @@
       <c r="F22" s="23">
         <v>1</v>
       </c>
-      <c r="H22" s="71"/>
+      <c r="H22" s="75"/>
       <c r="I22" s="58" t="s">
         <v>26</v>
       </c>
@@ -5622,7 +5458,7 @@
       <c r="O22" s="39"/>
     </row>
     <row r="23" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="72"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="59" t="s">
         <v>8</v>
       </c>
@@ -5633,7 +5469,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="25"/>
-      <c r="H23" s="72"/>
+      <c r="H23" s="76"/>
       <c r="I23" s="59" t="s">
         <v>8</v>
       </c>
@@ -5650,7 +5486,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="74" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="57" t="s">
@@ -5665,7 +5501,7 @@
       <c r="F24" s="17">
         <v>3.2932556854758501</v>
       </c>
-      <c r="H24" s="70" t="s">
+      <c r="H24" s="74" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="57" t="s">
@@ -5690,7 +5526,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="71"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="58" t="s">
         <v>26</v>
       </c>
@@ -5703,7 +5539,7 @@
       <c r="F25" s="23">
         <v>0.94671514952184899</v>
       </c>
-      <c r="H25" s="71"/>
+      <c r="H25" s="75"/>
       <c r="I25" s="58" t="s">
         <v>26</v>
       </c>
@@ -5725,7 +5561,7 @@
       <c r="O25" s="39"/>
     </row>
     <row r="26" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="72"/>
+      <c r="B26" s="76"/>
       <c r="C26" s="59" t="s">
         <v>8</v>
       </c>
@@ -5736,7 +5572,7 @@
         <v>0.681479053631181</v>
       </c>
       <c r="F26" s="25"/>
-      <c r="H26" s="72"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="59" t="s">
         <v>8</v>
       </c>
@@ -5752,7 +5588,7 @@
       <c r="O26" s="39"/>
     </row>
     <row r="27" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="74" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="57" t="s">
@@ -5767,7 +5603,7 @@
       <c r="F27" s="17">
         <v>2.0350314610621099</v>
       </c>
-      <c r="H27" s="70" t="s">
+      <c r="H27" s="74" t="s">
         <v>32</v>
       </c>
       <c r="I27" s="57" t="s">
@@ -5790,7 +5626,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="71"/>
+      <c r="B28" s="75"/>
       <c r="C28" s="58" t="s">
         <v>26</v>
       </c>
@@ -5803,7 +5639,7 @@
       <c r="F28" s="23">
         <v>0.99840659133647602</v>
       </c>
-      <c r="H28" s="71"/>
+      <c r="H28" s="75"/>
       <c r="I28" s="58" t="s">
         <v>26</v>
       </c>
@@ -5824,7 +5660,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="72"/>
+      <c r="B29" s="76"/>
       <c r="C29" s="59" t="s">
         <v>8</v>
       </c>
@@ -5835,7 +5671,7 @@
         <v>0.887186941951009</v>
       </c>
       <c r="F29" s="25"/>
-      <c r="H29" s="72"/>
+      <c r="H29" s="76"/>
       <c r="I29" s="59" t="s">
         <v>8</v>
       </c>
@@ -5892,29 +5728,19 @@
       <c r="C39" s="1"/>
     </row>
     <row r="70" spans="17:18" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q70" s="66" t="s">
+      <c r="Q70" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="R70" s="67"/>
+      <c r="R70" s="71"/>
     </row>
     <row r="71" spans="17:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q71" s="68" t="s">
+      <c r="Q71" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="R71" s="69"/>
+      <c r="R71" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="H9:H11"/>
     <mergeCell ref="Q70:R70"/>
     <mergeCell ref="Q71:R71"/>
     <mergeCell ref="B27:B29"/>
@@ -5931,6 +5757,16 @@
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="H21:H23"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="H9:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Figures_Tables/ranova_PVE/2019_2020_PVE_All.xlsx
+++ b/Figures_Tables/ranova_PVE/2019_2020_PVE_All.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbrei\Documents\R_Projects\chapter_two\Figures_Tables\ranova_PVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3EDDD3-7E61-4E0D-A9A7-EDBEAD6E79D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F9ED6F-4AD3-4749-BC24-B637F37EB335}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15660" yWindow="5604" windowWidth="13068" windowHeight="9504" tabRatio="762" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2020" sheetId="1" r:id="rId1"/>
-    <sheet name="2019" sheetId="2" r:id="rId2"/>
-    <sheet name="transposed- 2019" sheetId="4" r:id="rId3"/>
+    <sheet name="2019" sheetId="2" r:id="rId1"/>
+    <sheet name="transposed- 2019" sheetId="4" r:id="rId2"/>
+    <sheet name="2020" sheetId="1" r:id="rId3"/>
     <sheet name="transposed- 2020" sheetId="3" r:id="rId4"/>
+    <sheet name="2020 basics" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="62">
   <si>
     <t>Group</t>
   </si>
@@ -167,6 +168,66 @@
   <si>
     <t>For dist_urban, NOT urb_score</t>
   </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Var among pops?</t>
+  </si>
+  <si>
+    <t>Var among fams?</t>
+  </si>
+  <si>
+    <t>Sites</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Flowering success</t>
+  </si>
+  <si>
+    <t>Survival</t>
+  </si>
+  <si>
+    <t>Ramets- June</t>
+  </si>
+  <si>
+    <t>Ramets- Sept</t>
+  </si>
+  <si>
+    <t>Height- June</t>
+  </si>
+  <si>
+    <t>Weevil/height</t>
+  </si>
+  <si>
+    <t>Height- Sept</t>
+  </si>
+  <si>
+    <t>Weevil (total)</t>
+  </si>
+  <si>
+    <t>Herbivory- Sept</t>
+  </si>
+  <si>
+    <t>RGR</t>
+  </si>
+  <si>
+    <t>Herbivory- July</t>
+  </si>
+  <si>
+    <t>Diff btwn subtransects</t>
+  </si>
+  <si>
+    <t>Diff along gradient</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
@@ -270,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,8 +356,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -525,12 +598,221 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -612,27 +894,6 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,6 +901,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -659,13 +926,150 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF9F9F9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1127,1585 +1531,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N154"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4">
-        <v>116.921836904632</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.11215008421436901</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4.3785277418222801</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4.1998335638607004E-3</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.79796923089905303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>921.24755427567402</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.88365008222176999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="N7" s="69" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4">
-        <v>104.471918382829</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.116878429893278</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.5586494244534601</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1.7437460736255E-3</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.93273507730551397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>787.820577166372</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.88137782403309695</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.74186109339858197</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.38906535502568301</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="9">
-        <v>248.75091912155</v>
-      </c>
-      <c r="E22" s="10">
-        <v>5.35734077670822E-2</v>
-      </c>
-      <c r="F22" s="9">
-        <v>5.2945871291909197E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1">
-        <v>38.635270742905902</v>
-      </c>
-      <c r="E23" s="11">
-        <v>8.3208661942266501E-3</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.57740693299851797</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4355.7927582254097</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0.93810572603869102</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C27" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="9">
-        <v>277.30329398766497</v>
-      </c>
-      <c r="E28" s="10">
-        <v>6.3849249144599607E-2</v>
-      </c>
-      <c r="F28" s="9">
-        <v>6.0498800767163602E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1">
-        <v>44.178467306557003</v>
-      </c>
-      <c r="E29" s="11">
-        <v>1.0172118496394E-2</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.59906189223262996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4021.6122876217601</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0.92597863235900602</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1.2610493584707101</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.26145255478923801</v>
-      </c>
-      <c r="E33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C39" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="14">
-        <v>1.90447519177213E-4</v>
-      </c>
-      <c r="E40" s="11">
-        <v>1.2318530367525501E-2</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0.64349266305557495</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="13">
-        <v>0</v>
-      </c>
-      <c r="E41" s="11">
-        <v>0</v>
-      </c>
-      <c r="F41" s="13">
-        <v>0.999982379273889</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1.52697992387702E-2</v>
-      </c>
-      <c r="E42" s="11">
-        <v>0.98768146963247405</v>
-      </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C45" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="14">
-        <v>1.90447519177213E-4</v>
-      </c>
-      <c r="E46" s="11">
-        <v>1.2318530367525501E-2</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0.64485443628480899</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47" s="11">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1.52697992387702E-2</v>
-      </c>
-      <c r="E48" s="11">
-        <v>0.98768146963247405</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C50" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.83981120601817305</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.359450771570275</v>
-      </c>
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C57" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0.61754919280796305</v>
-      </c>
-      <c r="E58" s="11">
-        <v>1.4170445125586999E-2</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0.58443146173208804</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="1">
-        <v>9.0429758104002403E-2</v>
-      </c>
-      <c r="E59" s="11">
-        <v>2.0750248560868099E-3</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0.86114869475585598</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="1">
-        <v>42.872105325543203</v>
-      </c>
-      <c r="E60" s="11">
-        <v>0.98375453001832602</v>
-      </c>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C63" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0.63294899072393795</v>
-      </c>
-      <c r="E64" s="11">
-        <v>1.5146214959054501E-2</v>
-      </c>
-      <c r="F64" s="1">
-        <v>0.63732205649710605</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0.178827100640613</v>
-      </c>
-      <c r="E65" s="11">
-        <v>4.2792606458053996E-3</v>
-      </c>
-      <c r="F65" s="1">
-        <v>0.782846570378118</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="1">
-        <v>40.9774757075187</v>
-      </c>
-      <c r="E66" s="11">
-        <v>0.98057452439514003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C68" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1.9593703128312201</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0.16158067838373799</v>
-      </c>
-      <c r="E69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C74" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="13">
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <v>0</v>
-      </c>
-      <c r="F75" s="13">
-        <v>0.999998682044413</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="14">
-        <v>1.13947582982668E-12</v>
-      </c>
-      <c r="E76" s="11">
-        <v>1.7481431660599101E-14</v>
-      </c>
-      <c r="F76" s="13">
-        <v>0.999998682044413</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C77" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" s="1">
-        <v>65.182065859908803</v>
-      </c>
-      <c r="E77" s="11">
-        <v>0.99999999999998301</v>
-      </c>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C80" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="1">
-        <v>1.54347087570543E-3</v>
-      </c>
-      <c r="E81" s="11">
-        <v>1.99735543898651E-5</v>
-      </c>
-      <c r="F81" s="13">
-        <v>0.99950338895694002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="13">
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <v>0</v>
-      </c>
-      <c r="F82" s="13">
-        <v>0.99961519535049004</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C83" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83" s="1">
-        <v>77.274180497844497</v>
-      </c>
-      <c r="E83" s="11">
-        <v>0.99998002644561002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C85" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86">
-        <v>0.17986196998923301</v>
-      </c>
-      <c r="D86" s="1">
-        <v>0.67149188818002303</v>
-      </c>
-      <c r="E86" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" t="s">
-        <v>13</v>
-      </c>
-      <c r="C90" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C91" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93" s="11">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C94" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" s="1">
-        <v>402.71211179796398</v>
-      </c>
-      <c r="E94" s="11">
-        <v>1</v>
-      </c>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>11</v>
-      </c>
-      <c r="B96" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C97" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
-        <v>16</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="1">
-        <v>0.61804381785347395</v>
-      </c>
-      <c r="E98" s="11">
-        <v>1.6678422868859799E-3</v>
-      </c>
-      <c r="F98" s="1">
-        <v>0.96049596325970898</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="14">
-        <v>1.34269143053617E-5</v>
-      </c>
-      <c r="E99" s="11">
-        <v>3.6233637185552598E-8</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C100" t="s">
-        <v>4</v>
-      </c>
-      <c r="D100" s="1">
-        <v>369.94684731069901</v>
-      </c>
-      <c r="E100" s="11">
-        <v>0.99833212147947703</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C102" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" s="1">
-        <v>0.34539731161277099</v>
-      </c>
-      <c r="D103" s="1">
-        <v>0.55673023631988205</v>
-      </c>
-      <c r="E103" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>10</v>
-      </c>
-      <c r="B107" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C108" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109" s="11">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110" s="11">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C111" t="s">
-        <v>4</v>
-      </c>
-      <c r="D111" s="14">
-        <v>1.6023121272854099E-4</v>
-      </c>
-      <c r="E111" s="11">
-        <v>1</v>
-      </c>
-      <c r="F111" s="1"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>11</v>
-      </c>
-      <c r="B113" t="s">
-        <v>13</v>
-      </c>
-      <c r="C113" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C114" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" s="14">
-        <v>2.2188901186726801E-6</v>
-      </c>
-      <c r="E115" s="11">
-        <v>1.33857427280823E-2</v>
-      </c>
-      <c r="F115" s="1">
-        <v>0.68629349604495604</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116" s="11">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C117" t="s">
-        <v>4</v>
-      </c>
-      <c r="D117" s="14">
-        <v>1.6354629480585199E-4</v>
-      </c>
-      <c r="E117" s="11">
-        <v>0.98661425727191798</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C119" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120" s="1">
-        <v>6.9075393842396596E-2</v>
-      </c>
-      <c r="D120" s="1">
-        <v>0.79268779236444298</v>
-      </c>
-      <c r="E120" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>10</v>
-      </c>
-      <c r="B124" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C125" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B126" t="s">
-        <v>18</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D126" s="1">
-        <v>0.165737605530588</v>
-      </c>
-      <c r="E126" s="11">
-        <v>4.7644737301534998E-2</v>
-      </c>
-      <c r="F126" s="1">
-        <v>8.8820463695740107E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" s="1">
-        <v>1.9619771369454701E-2</v>
-      </c>
-      <c r="E127" s="11">
-        <v>5.6401131766159601E-3</v>
-      </c>
-      <c r="F127" s="1">
-        <v>0.681479053631181</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D128" s="1">
-        <v>3.2932556854758501</v>
-      </c>
-      <c r="E128" s="11">
-        <v>0.94671514952184899</v>
-      </c>
-      <c r="F128" s="1"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>11</v>
-      </c>
-      <c r="B130" t="s">
-        <v>13</v>
-      </c>
-      <c r="C130" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C131" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B132" t="s">
-        <v>16</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" s="1">
-        <v>0.13808309711032701</v>
-      </c>
-      <c r="E132" s="11">
-        <v>4.1664859659823701E-2</v>
-      </c>
-      <c r="F132" s="1">
-        <v>0.22242641256019</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B133" t="s">
-        <v>16</v>
-      </c>
-      <c r="C133" t="s">
-        <v>3</v>
-      </c>
-      <c r="D133" s="1">
-        <v>5.0840208576759902E-2</v>
-      </c>
-      <c r="E133" s="11">
-        <v>1.53404015390414E-2</v>
-      </c>
-      <c r="F133" s="1">
-        <v>0.38294915322589301</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C134" t="s">
-        <v>4</v>
-      </c>
-      <c r="D134" s="1">
-        <v>3.1252147530443799</v>
-      </c>
-      <c r="E134" s="11">
-        <v>0.94299473880113505</v>
-      </c>
-      <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B135" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C136" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B137" t="s">
-        <v>16</v>
-      </c>
-      <c r="C137" s="1">
-        <v>1.2323839504229499</v>
-      </c>
-      <c r="D137" s="1">
-        <v>0.26694391696363501</v>
-      </c>
-      <c r="E137" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>10</v>
-      </c>
-      <c r="B141" t="s">
-        <v>13</v>
-      </c>
-      <c r="C141" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C142" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B143" t="s">
-        <v>16</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143" s="11">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B144" t="s">
-        <v>16</v>
-      </c>
-      <c r="C144" t="s">
-        <v>3</v>
-      </c>
-      <c r="D144" s="1">
-        <v>3.2478118521421799E-3</v>
-      </c>
-      <c r="E144" s="11">
-        <v>1.5934086635236099E-3</v>
-      </c>
-      <c r="F144" s="1">
-        <v>0.887186941951009</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C145" t="s">
-        <v>4</v>
-      </c>
-      <c r="D145" s="1">
-        <v>2.0350314610621099</v>
-      </c>
-      <c r="E145" s="11">
-        <v>0.99840659133647602</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>11</v>
-      </c>
-      <c r="B147" t="s">
-        <v>13</v>
-      </c>
-      <c r="C147" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C148" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B149" t="s">
-        <v>16</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D149" s="1">
-        <v>5.4556594826925601E-9</v>
-      </c>
-      <c r="E149" s="11">
-        <v>2.7492052170377699E-9</v>
-      </c>
-      <c r="F149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B150" t="s">
-        <v>16</v>
-      </c>
-      <c r="C150" t="s">
-        <v>3</v>
-      </c>
-      <c r="D150" s="1">
-        <v>1.03070439026539E-2</v>
-      </c>
-      <c r="E150" s="11">
-        <v>5.1939053306582997E-3</v>
-      </c>
-      <c r="F150" s="1">
-        <v>0.73060043452790202</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C151" t="s">
-        <v>4</v>
-      </c>
-      <c r="D151" s="1">
-        <v>1.9741426559172199</v>
-      </c>
-      <c r="E151" s="11">
-        <v>0.99480609192013703</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B152" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C153" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B154" t="s">
-        <v>16</v>
-      </c>
-      <c r="C154" s="1">
-        <v>3.16492007804706E-2</v>
-      </c>
-      <c r="D154" s="1">
-        <v>0.85879976536592195</v>
-      </c>
-      <c r="E154" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E113D0C-DEAC-4D25-B90A-A8F8760B4604}">
   <dimension ref="A2:M112"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
@@ -3887,11 +2716,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77878847-70DC-4035-AFE6-61B1D9B32069}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24:B26"/>
     </sheetView>
   </sheetViews>
@@ -3915,30 +2744,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="H1" s="77" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72"/>
+      <c r="H1" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="70" t="s">
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="71"/>
+      <c r="N1" s="74"/>
       <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="64" t="s">
         <v>6</v>
       </c>
@@ -3948,8 +2777,8 @@
       <c r="F2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="83"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="62" t="s">
         <v>6</v>
       </c>
@@ -3959,16 +2788,16 @@
       <c r="L2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="84" t="s">
+      <c r="M2" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="85"/>
+      <c r="N2" s="80"/>
       <c r="O2" s="37"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="81" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="57" t="s">
@@ -3977,7 +2806,7 @@
       <c r="D3" s="48"/>
       <c r="E3" s="18"/>
       <c r="F3" s="19"/>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="81" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="57" t="s">
@@ -3996,14 +2825,14 @@
     </row>
     <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="75"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
-      <c r="H4" s="75"/>
+      <c r="H4" s="82"/>
       <c r="I4" s="58" t="s">
         <v>26</v>
       </c>
@@ -4020,14 +2849,14 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="75"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="49"/>
       <c r="E5" s="20"/>
       <c r="F5" s="21"/>
-      <c r="H5" s="76"/>
+      <c r="H5" s="83"/>
       <c r="I5" s="59" t="s">
         <v>8</v>
       </c>
@@ -4039,7 +2868,7 @@
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="81" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="57" t="s">
@@ -4048,7 +2877,7 @@
       <c r="D6" s="50"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="81" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="57" t="s">
@@ -4066,14 +2895,14 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="75"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="51"/>
       <c r="E7" s="22"/>
       <c r="F7" s="23"/>
-      <c r="H7" s="75"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="58" t="s">
         <v>26</v>
       </c>
@@ -4090,14 +2919,14 @@
     </row>
     <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="76"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="24"/>
       <c r="F8" s="25"/>
-      <c r="H8" s="76"/>
+      <c r="H8" s="83"/>
       <c r="I8" s="59" t="s">
         <v>8</v>
       </c>
@@ -4110,7 +2939,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="81" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="57" t="s">
@@ -4119,7 +2948,7 @@
       <c r="D9" s="43"/>
       <c r="E9" s="27"/>
       <c r="F9" s="17"/>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="81" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="57" t="s">
@@ -4137,14 +2966,14 @@
       <c r="O9" s="39"/>
     </row>
     <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="75"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="41"/>
       <c r="E10" s="22"/>
       <c r="F10" s="23"/>
-      <c r="H10" s="75"/>
+      <c r="H10" s="82"/>
       <c r="I10" s="58" t="s">
         <v>26</v>
       </c>
@@ -4160,14 +2989,14 @@
       <c r="O10" s="39"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="76"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="28"/>
       <c r="F11" s="25"/>
-      <c r="H11" s="76"/>
+      <c r="H11" s="83"/>
       <c r="I11" s="59" t="s">
         <v>8</v>
       </c>
@@ -4180,7 +3009,7 @@
     </row>
     <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="81" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="57" t="s">
@@ -4189,7 +3018,7 @@
       <c r="D12" s="38"/>
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="81" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="57" t="s">
@@ -4207,14 +3036,14 @@
       <c r="O12" s="39"/>
     </row>
     <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="75"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="22"/>
       <c r="F13" s="23"/>
-      <c r="H13" s="75"/>
+      <c r="H13" s="82"/>
       <c r="I13" s="58" t="s">
         <v>26</v>
       </c>
@@ -4231,14 +3060,14 @@
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="76"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="24"/>
       <c r="F14" s="25"/>
-      <c r="H14" s="76"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="59" t="s">
         <v>8</v>
       </c>
@@ -4251,7 +3080,7 @@
     </row>
     <row r="15" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="81" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="57" t="s">
@@ -4260,7 +3089,7 @@
       <c r="D15" s="54"/>
       <c r="E15" s="30"/>
       <c r="F15" s="17"/>
-      <c r="H15" s="74" t="s">
+      <c r="H15" s="81" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="57" t="s">
@@ -4279,14 +3108,14 @@
     </row>
     <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" s="75"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="22"/>
       <c r="F16" s="23"/>
-      <c r="H16" s="75"/>
+      <c r="H16" s="82"/>
       <c r="I16" s="58" t="s">
         <v>26</v>
       </c>
@@ -4302,14 +3131,14 @@
       <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="76"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="28"/>
       <c r="F17" s="25"/>
-      <c r="H17" s="76"/>
+      <c r="H17" s="83"/>
       <c r="I17" s="59" t="s">
         <v>8</v>
       </c>
@@ -4322,7 +3151,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="81" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="57" t="s">
@@ -4331,7 +3160,7 @@
       <c r="D18" s="56"/>
       <c r="E18" s="33"/>
       <c r="F18" s="17"/>
-      <c r="H18" s="74" t="s">
+      <c r="H18" s="81" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="57" t="s">
@@ -4349,14 +3178,14 @@
       <c r="O18" s="39"/>
     </row>
     <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="75"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
-      <c r="H19" s="75"/>
+      <c r="H19" s="82"/>
       <c r="I19" s="58" t="s">
         <v>26</v>
       </c>
@@ -4372,14 +3201,14 @@
       <c r="O19" s="39"/>
     </row>
     <row r="20" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="76"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="35"/>
       <c r="F20" s="25"/>
-      <c r="H20" s="76"/>
+      <c r="H20" s="83"/>
       <c r="I20" s="59" t="s">
         <v>8</v>
       </c>
@@ -4392,7 +3221,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="81" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="57" t="s">
@@ -4401,7 +3230,7 @@
       <c r="D21" s="56"/>
       <c r="E21" s="33"/>
       <c r="F21" s="26"/>
-      <c r="H21" s="74" t="s">
+      <c r="H21" s="81" t="s">
         <v>27</v>
       </c>
       <c r="I21" s="57" t="s">
@@ -4420,14 +3249,14 @@
     </row>
     <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
-      <c r="B22" s="75"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="22"/>
       <c r="F22" s="23"/>
-      <c r="H22" s="75"/>
+      <c r="H22" s="82"/>
       <c r="I22" s="58" t="s">
         <v>26</v>
       </c>
@@ -4443,14 +3272,14 @@
       <c r="O22" s="39"/>
     </row>
     <row r="23" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="76"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="42"/>
       <c r="E23" s="35"/>
       <c r="F23" s="25"/>
-      <c r="H23" s="76"/>
+      <c r="H23" s="83"/>
       <c r="I23" s="59" t="s">
         <v>8</v>
       </c>
@@ -4463,7 +3292,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="81" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="57" t="s">
@@ -4472,7 +3301,7 @@
       <c r="D24" s="50"/>
       <c r="E24" s="16"/>
       <c r="F24" s="17"/>
-      <c r="H24" s="74" t="s">
+      <c r="H24" s="81" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="57" t="s">
@@ -4491,14 +3320,14 @@
     </row>
     <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="75"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="22"/>
       <c r="F25" s="23"/>
-      <c r="H25" s="75"/>
+      <c r="H25" s="82"/>
       <c r="I25" s="58" t="s">
         <v>26</v>
       </c>
@@ -4514,14 +3343,14 @@
       <c r="O25" s="39"/>
     </row>
     <row r="26" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="76"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="52"/>
       <c r="E26" s="24"/>
       <c r="F26" s="25"/>
-      <c r="H26" s="76"/>
+      <c r="H26" s="83"/>
       <c r="I26" s="59" t="s">
         <v>8</v>
       </c>
@@ -4533,7 +3362,7 @@
       <c r="O26" s="39"/>
     </row>
     <row r="27" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="81" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="57" t="s">
@@ -4542,7 +3371,7 @@
       <c r="D27" s="54"/>
       <c r="E27" s="16"/>
       <c r="F27" s="17"/>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="81" t="s">
         <v>32</v>
       </c>
       <c r="I27" s="57" t="s">
@@ -4559,14 +3388,14 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="75"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="22"/>
       <c r="F28" s="23"/>
-      <c r="H28" s="75"/>
+      <c r="H28" s="82"/>
       <c r="I28" s="58" t="s">
         <v>26</v>
       </c>
@@ -4581,14 +3410,14 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="76"/>
+      <c r="B29" s="83"/>
       <c r="C29" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="55"/>
       <c r="E29" s="24"/>
       <c r="F29" s="25"/>
-      <c r="H29" s="76"/>
+      <c r="H29" s="83"/>
       <c r="I29" s="59" t="s">
         <v>8</v>
       </c>
@@ -4641,37 +3470,19 @@
       <c r="C39" s="1"/>
     </row>
     <row r="70" spans="17:18" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q70" s="70" t="s">
+      <c r="Q70" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="R70" s="71"/>
+      <c r="R70" s="74"/>
     </row>
     <row r="71" spans="17:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q71" s="72" t="s">
+      <c r="Q71" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="R71" s="73"/>
+      <c r="R71" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="H18:H20"/>
     <mergeCell ref="Q70:R70"/>
     <mergeCell ref="Q71:R71"/>
     <mergeCell ref="B21:B23"/>
@@ -4680,7 +3491,1600 @@
     <mergeCell ref="H24:H26"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="H27:H29"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:N154"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4">
+        <v>116.921836904632</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.11215008421436901</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.3785277418222801</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.1998335638607004E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.79796923089905303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>921.24755427567402</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.88365008222176999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="N7" s="69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4">
+        <v>104.471918382829</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.116878429893278</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.5586494244534601</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1.7437460736255E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.93273507730551397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>787.820577166372</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.88137782403309695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.74186109339858197</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.38906535502568301</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="9">
+        <v>248.75091912155</v>
+      </c>
+      <c r="E22" s="10">
+        <v>5.35734077670822E-2</v>
+      </c>
+      <c r="F22" s="9">
+        <v>5.2945871291909197E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>38.635270742905902</v>
+      </c>
+      <c r="E23" s="11">
+        <v>8.3208661942266501E-3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.57740693299851797</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4355.7927582254097</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.93810572603869102</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="9">
+        <v>277.30329398766497</v>
+      </c>
+      <c r="E28" s="10">
+        <v>6.3849249144599607E-2</v>
+      </c>
+      <c r="F28" s="9">
+        <v>6.0498800767163602E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44.178467306557003</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1.0172118496394E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.59906189223262996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4021.6122876217601</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.92597863235900602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.2610493584707101</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.26145255478923801</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1.90447519177213E-4</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1.2318530367525501E-2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.64349266305557495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="13">
+        <v>0</v>
+      </c>
+      <c r="E41" s="11">
+        <v>0</v>
+      </c>
+      <c r="F41" s="13">
+        <v>0.999982379273889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.52697992387702E-2</v>
+      </c>
+      <c r="E42" s="11">
+        <v>0.98768146963247405</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="14">
+        <v>1.90447519177213E-4</v>
+      </c>
+      <c r="E46" s="11">
+        <v>1.2318530367525501E-2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.64485443628480899</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.52697992387702E-2</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0.98768146963247405</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.83981120601817305</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.359450771570275</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.61754919280796305</v>
+      </c>
+      <c r="E58" s="11">
+        <v>1.4170445125586999E-2</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.58443146173208804</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>9.0429758104002403E-2</v>
+      </c>
+      <c r="E59" s="11">
+        <v>2.0750248560868099E-3</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.86114869475585598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1">
+        <v>42.872105325543203</v>
+      </c>
+      <c r="E60" s="11">
+        <v>0.98375453001832602</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C63" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.63294899072393795</v>
+      </c>
+      <c r="E64" s="11">
+        <v>1.5146214959054501E-2</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.63732205649710605</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.178827100640613</v>
+      </c>
+      <c r="E65" s="11">
+        <v>4.2792606458053996E-3</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.782846570378118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1">
+        <v>40.9774757075187</v>
+      </c>
+      <c r="E66" s="11">
+        <v>0.98057452439514003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1.9593703128312201</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.16158067838373799</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C74" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="13">
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
+        <v>0</v>
+      </c>
+      <c r="F75" s="13">
+        <v>0.999998682044413</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="14">
+        <v>1.13947582982668E-12</v>
+      </c>
+      <c r="E76" s="11">
+        <v>1.7481431660599101E-14</v>
+      </c>
+      <c r="F76" s="13">
+        <v>0.999998682044413</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="1">
+        <v>65.182065859908803</v>
+      </c>
+      <c r="E77" s="11">
+        <v>0.99999999999998301</v>
+      </c>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C80" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1.54347087570543E-3</v>
+      </c>
+      <c r="E81" s="11">
+        <v>1.99735543898651E-5</v>
+      </c>
+      <c r="F81" s="13">
+        <v>0.99950338895694002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="13">
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
+        <v>0</v>
+      </c>
+      <c r="F82" s="13">
+        <v>0.99961519535049004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="1">
+        <v>77.274180497844497</v>
+      </c>
+      <c r="E83" s="11">
+        <v>0.99998002644561002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86">
+        <v>0.17986196998923301</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.67149188818002303</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C91" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="1">
+        <v>402.71211179796398</v>
+      </c>
+      <c r="E94" s="11">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C97" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.61804381785347395</v>
+      </c>
+      <c r="E98" s="11">
+        <v>1.6678422868859799E-3</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0.96049596325970898</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="14">
+        <v>1.34269143053617E-5</v>
+      </c>
+      <c r="E99" s="11">
+        <v>3.6233637185552598E-8</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="1">
+        <v>369.94684731069901</v>
+      </c>
+      <c r="E100" s="11">
+        <v>0.99833212147947703</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C102" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.34539731161277099</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.55673023631988205</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C108" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" s="11">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" s="11">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="14">
+        <v>1.6023121272854099E-4</v>
+      </c>
+      <c r="E111" s="11">
+        <v>1</v>
+      </c>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C114" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="14">
+        <v>2.2188901186726801E-6</v>
+      </c>
+      <c r="E115" s="11">
+        <v>1.33857427280823E-2</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0.68629349604495604</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116" s="11">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="14">
+        <v>1.6354629480585199E-4</v>
+      </c>
+      <c r="E117" s="11">
+        <v>0.98661425727191798</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C119" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="1">
+        <v>6.9075393842396596E-2</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0.79268779236444298</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C125" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0.165737605530588</v>
+      </c>
+      <c r="E126" s="11">
+        <v>4.7644737301534998E-2</v>
+      </c>
+      <c r="F126" s="1">
+        <v>8.8820463695740107E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1.9619771369454701E-2</v>
+      </c>
+      <c r="E127" s="11">
+        <v>5.6401131766159601E-3</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0.681479053631181</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="1">
+        <v>3.2932556854758501</v>
+      </c>
+      <c r="E128" s="11">
+        <v>0.94671514952184899</v>
+      </c>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C131" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0.13808309711032701</v>
+      </c>
+      <c r="E132" s="11">
+        <v>4.1664859659823701E-2</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0.22242641256019</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="1">
+        <v>5.0840208576759902E-2</v>
+      </c>
+      <c r="E133" s="11">
+        <v>1.53404015390414E-2</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0.38294915322589301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" s="1">
+        <v>3.1252147530443799</v>
+      </c>
+      <c r="E134" s="11">
+        <v>0.94299473880113505</v>
+      </c>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C136" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1.2323839504229499</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0.26694391696363501</v>
+      </c>
+      <c r="E137" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C142" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143" s="11">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" s="1">
+        <v>3.2478118521421799E-3</v>
+      </c>
+      <c r="E144" s="11">
+        <v>1.5934086635236099E-3</v>
+      </c>
+      <c r="F144" s="1">
+        <v>0.887186941951009</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" s="1">
+        <v>2.0350314610621099</v>
+      </c>
+      <c r="E145" s="11">
+        <v>0.99840659133647602</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C148" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="1">
+        <v>5.4556594826925601E-9</v>
+      </c>
+      <c r="E149" s="11">
+        <v>2.7492052170377699E-9</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" s="1">
+        <v>1.03070439026539E-2</v>
+      </c>
+      <c r="E150" s="11">
+        <v>5.1939053306582997E-3</v>
+      </c>
+      <c r="F150" s="1">
+        <v>0.73060043452790202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1.9741426559172199</v>
+      </c>
+      <c r="E151" s="11">
+        <v>0.99480609192013703</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" s="1">
+        <v>3.16492007804706E-2</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0.85879976536592195</v>
+      </c>
+      <c r="E154" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -4714,30 +5118,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="H1" s="77" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72"/>
+      <c r="H1" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="70" t="s">
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="71"/>
+      <c r="N1" s="74"/>
       <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="64" t="s">
         <v>6</v>
       </c>
@@ -4747,8 +5151,8 @@
       <c r="F2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="83"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="62" t="s">
         <v>6</v>
       </c>
@@ -4758,16 +5162,16 @@
       <c r="L2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="84" t="s">
+      <c r="M2" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="85"/>
+      <c r="N2" s="80"/>
       <c r="O2" s="37"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="81" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="57" t="s">
@@ -4782,7 +5186,7 @@
       <c r="F3" s="19">
         <v>921.24755427567402</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="81" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="57" t="s">
@@ -4807,7 +5211,7 @@
     </row>
     <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="75"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="58" t="s">
         <v>26</v>
       </c>
@@ -4820,7 +5224,7 @@
       <c r="F4" s="19">
         <v>0.88365008222176999</v>
       </c>
-      <c r="H4" s="75"/>
+      <c r="H4" s="82"/>
       <c r="I4" s="58" t="s">
         <v>26</v>
       </c>
@@ -4843,7 +5247,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="75"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="59" t="s">
         <v>8</v>
       </c>
@@ -4854,7 +5258,7 @@
         <v>0.79796923089905303</v>
       </c>
       <c r="F5" s="21"/>
-      <c r="H5" s="76"/>
+      <c r="H5" s="83"/>
       <c r="I5" s="59" t="s">
         <v>8</v>
       </c>
@@ -4870,7 +5274,7 @@
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="81" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="57" t="s">
@@ -4885,7 +5289,7 @@
       <c r="F6" s="17">
         <v>4355.7927582254097</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="81" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="57" t="s">
@@ -4909,7 +5313,7 @@
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="75"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="58" t="s">
         <v>26</v>
       </c>
@@ -4922,7 +5326,7 @@
       <c r="F7" s="23">
         <v>0.93810572603869102</v>
       </c>
-      <c r="H7" s="75"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="58" t="s">
         <v>26</v>
       </c>
@@ -4945,7 +5349,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="76"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="59" t="s">
         <v>8</v>
       </c>
@@ -4956,7 +5360,7 @@
         <v>0.57740693299851797</v>
       </c>
       <c r="F8" s="25"/>
-      <c r="H8" s="76"/>
+      <c r="H8" s="83"/>
       <c r="I8" s="59" t="s">
         <v>8</v>
       </c>
@@ -4973,7 +5377,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="81" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="57" t="s">
@@ -4988,7 +5392,7 @@
       <c r="F9" s="17">
         <v>1.52697992387702E-2</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="81" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="57" t="s">
@@ -5012,7 +5416,7 @@
       <c r="O9" s="39"/>
     </row>
     <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="75"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="58" t="s">
         <v>26</v>
       </c>
@@ -5025,7 +5429,7 @@
       <c r="F10" s="23">
         <v>0.98768146963247405</v>
       </c>
-      <c r="H10" s="75"/>
+      <c r="H10" s="82"/>
       <c r="I10" s="58" t="s">
         <v>26</v>
       </c>
@@ -5047,7 +5451,7 @@
       <c r="O10" s="39"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="76"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="59" t="s">
         <v>8</v>
       </c>
@@ -5058,7 +5462,7 @@
         <v>0.999982379273889</v>
       </c>
       <c r="F11" s="25"/>
-      <c r="H11" s="76"/>
+      <c r="H11" s="83"/>
       <c r="I11" s="59" t="s">
         <v>8</v>
       </c>
@@ -5075,7 +5479,7 @@
     </row>
     <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="81" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="57" t="s">
@@ -5090,7 +5494,7 @@
       <c r="F12" s="17">
         <v>42.872105325543203</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="81" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="57" t="s">
@@ -5114,7 +5518,7 @@
       <c r="O12" s="39"/>
     </row>
     <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="75"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="58" t="s">
         <v>26</v>
       </c>
@@ -5127,7 +5531,7 @@
       <c r="F13" s="23">
         <v>0.98375453001832602</v>
       </c>
-      <c r="H13" s="75"/>
+      <c r="H13" s="82"/>
       <c r="I13" s="58" t="s">
         <v>26</v>
       </c>
@@ -5150,7 +5554,7 @@
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="76"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="59" t="s">
         <v>8</v>
       </c>
@@ -5161,7 +5565,7 @@
         <v>0.86114869475585598</v>
       </c>
       <c r="F14" s="25"/>
-      <c r="H14" s="76"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="59" t="s">
         <v>8</v>
       </c>
@@ -5178,7 +5582,7 @@
     </row>
     <row r="15" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="81" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="57" t="s">
@@ -5193,7 +5597,7 @@
       <c r="F15" s="17">
         <v>65.182065859908803</v>
       </c>
-      <c r="H15" s="74" t="s">
+      <c r="H15" s="81" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="57" t="s">
@@ -5218,7 +5622,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" s="75"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="58" t="s">
         <v>26</v>
       </c>
@@ -5231,7 +5635,7 @@
       <c r="F16" s="23">
         <v>0.99999999999998301</v>
       </c>
-      <c r="H16" s="75"/>
+      <c r="H16" s="82"/>
       <c r="I16" s="58" t="s">
         <v>26</v>
       </c>
@@ -5253,7 +5657,7 @@
       <c r="O16" s="39"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="76"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="59" t="s">
         <v>8</v>
       </c>
@@ -5264,7 +5668,7 @@
         <v>0.999998682044413</v>
       </c>
       <c r="F17" s="25"/>
-      <c r="H17" s="76"/>
+      <c r="H17" s="83"/>
       <c r="I17" s="59" t="s">
         <v>8</v>
       </c>
@@ -5281,7 +5685,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="81" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="57" t="s">
@@ -5296,7 +5700,7 @@
       <c r="F18" s="17">
         <v>402.71211179796398</v>
       </c>
-      <c r="H18" s="74" t="s">
+      <c r="H18" s="81" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="57" t="s">
@@ -5320,7 +5724,7 @@
       <c r="O18" s="39"/>
     </row>
     <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="75"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="58" t="s">
         <v>26</v>
       </c>
@@ -5333,7 +5737,7 @@
       <c r="F19" s="23">
         <v>1</v>
       </c>
-      <c r="H19" s="75"/>
+      <c r="H19" s="82"/>
       <c r="I19" s="58" t="s">
         <v>26</v>
       </c>
@@ -5355,7 +5759,7 @@
       <c r="O19" s="39"/>
     </row>
     <row r="20" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="76"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="59" t="s">
         <v>8</v>
       </c>
@@ -5366,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="25"/>
-      <c r="H20" s="76"/>
+      <c r="H20" s="83"/>
       <c r="I20" s="59" t="s">
         <v>8</v>
       </c>
@@ -5383,7 +5787,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="81" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="57" t="s">
@@ -5398,7 +5802,7 @@
       <c r="F21" s="26">
         <v>1.6023121272854099E-4</v>
       </c>
-      <c r="H21" s="74" t="s">
+      <c r="H21" s="81" t="s">
         <v>27</v>
       </c>
       <c r="I21" s="57" t="s">
@@ -5423,7 +5827,7 @@
     </row>
     <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
-      <c r="B22" s="75"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="58" t="s">
         <v>26</v>
       </c>
@@ -5436,7 +5840,7 @@
       <c r="F22" s="23">
         <v>1</v>
       </c>
-      <c r="H22" s="75"/>
+      <c r="H22" s="82"/>
       <c r="I22" s="58" t="s">
         <v>26</v>
       </c>
@@ -5458,7 +5862,7 @@
       <c r="O22" s="39"/>
     </row>
     <row r="23" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="76"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="59" t="s">
         <v>8</v>
       </c>
@@ -5469,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="25"/>
-      <c r="H23" s="76"/>
+      <c r="H23" s="83"/>
       <c r="I23" s="59" t="s">
         <v>8</v>
       </c>
@@ -5486,7 +5890,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="81" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="57" t="s">
@@ -5501,7 +5905,7 @@
       <c r="F24" s="17">
         <v>3.2932556854758501</v>
       </c>
-      <c r="H24" s="74" t="s">
+      <c r="H24" s="81" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="57" t="s">
@@ -5526,7 +5930,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="75"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="58" t="s">
         <v>26</v>
       </c>
@@ -5539,7 +5943,7 @@
       <c r="F25" s="23">
         <v>0.94671514952184899</v>
       </c>
-      <c r="H25" s="75"/>
+      <c r="H25" s="82"/>
       <c r="I25" s="58" t="s">
         <v>26</v>
       </c>
@@ -5561,7 +5965,7 @@
       <c r="O25" s="39"/>
     </row>
     <row r="26" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="76"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="59" t="s">
         <v>8</v>
       </c>
@@ -5572,7 +5976,7 @@
         <v>0.681479053631181</v>
       </c>
       <c r="F26" s="25"/>
-      <c r="H26" s="76"/>
+      <c r="H26" s="83"/>
       <c r="I26" s="59" t="s">
         <v>8</v>
       </c>
@@ -5588,7 +5992,7 @@
       <c r="O26" s="39"/>
     </row>
     <row r="27" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="81" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="57" t="s">
@@ -5603,7 +6007,7 @@
       <c r="F27" s="17">
         <v>2.0350314610621099</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="81" t="s">
         <v>32</v>
       </c>
       <c r="I27" s="57" t="s">
@@ -5626,7 +6030,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="75"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="58" t="s">
         <v>26</v>
       </c>
@@ -5639,7 +6043,7 @@
       <c r="F28" s="23">
         <v>0.99840659133647602</v>
       </c>
-      <c r="H28" s="75"/>
+      <c r="H28" s="82"/>
       <c r="I28" s="58" t="s">
         <v>26</v>
       </c>
@@ -5660,7 +6064,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="76"/>
+      <c r="B29" s="83"/>
       <c r="C29" s="59" t="s">
         <v>8</v>
       </c>
@@ -5671,7 +6075,7 @@
         <v>0.887186941951009</v>
       </c>
       <c r="F29" s="25"/>
-      <c r="H29" s="76"/>
+      <c r="H29" s="83"/>
       <c r="I29" s="59" t="s">
         <v>8</v>
       </c>
@@ -5728,19 +6132,29 @@
       <c r="C39" s="1"/>
     </row>
     <row r="70" spans="17:18" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q70" s="70" t="s">
+      <c r="Q70" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="R70" s="71"/>
+      <c r="R70" s="74"/>
     </row>
     <row r="71" spans="17:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q71" s="72" t="s">
+      <c r="Q71" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="R71" s="73"/>
+      <c r="R71" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="H9:H11"/>
     <mergeCell ref="Q70:R70"/>
     <mergeCell ref="Q71:R71"/>
     <mergeCell ref="B27:B29"/>
@@ -5757,19 +6171,523 @@
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="H21:H23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="H9:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A132E946-3EEF-41D0-86A5-464C9DCAFD9A}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="87"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="94" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="95">
+        <v>1</v>
+      </c>
+      <c r="D3" s="96">
+        <v>0</v>
+      </c>
+      <c r="E3" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="97" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="98">
+        <v>0</v>
+      </c>
+      <c r="D4" s="99">
+        <v>0</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="98">
+        <v>0</v>
+      </c>
+      <c r="D5" s="99">
+        <v>0</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="98">
+        <v>0</v>
+      </c>
+      <c r="D6" s="99">
+        <v>0</v>
+      </c>
+      <c r="E6" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="98">
+        <v>0</v>
+      </c>
+      <c r="D7" s="99">
+        <v>1</v>
+      </c>
+      <c r="E7" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="98">
+        <v>0</v>
+      </c>
+      <c r="D8" s="99">
+        <v>1</v>
+      </c>
+      <c r="E8" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="98">
+        <v>0</v>
+      </c>
+      <c r="D9" s="99">
+        <v>0</v>
+      </c>
+      <c r="E9" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="98">
+        <v>0</v>
+      </c>
+      <c r="D10" s="99">
+        <v>0</v>
+      </c>
+      <c r="E10" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="98">
+        <v>0</v>
+      </c>
+      <c r="D11" s="99">
+        <v>0</v>
+      </c>
+      <c r="E11" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="98">
+        <v>0</v>
+      </c>
+      <c r="D12" s="99">
+        <v>0</v>
+      </c>
+      <c r="E12" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="101">
+        <v>0</v>
+      </c>
+      <c r="D13" s="102">
+        <v>0</v>
+      </c>
+      <c r="E13" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="103" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="95">
+        <v>0</v>
+      </c>
+      <c r="D14" s="96">
+        <v>0</v>
+      </c>
+      <c r="E14" s="96">
+        <v>1</v>
+      </c>
+      <c r="F14" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="98">
+        <v>0</v>
+      </c>
+      <c r="D15" s="99">
+        <v>0</v>
+      </c>
+      <c r="E15" s="99">
+        <v>0</v>
+      </c>
+      <c r="F15" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="98">
+        <v>0</v>
+      </c>
+      <c r="D16" s="99">
+        <v>0</v>
+      </c>
+      <c r="E16" s="99">
+        <v>1</v>
+      </c>
+      <c r="F16" s="100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="98">
+        <v>0</v>
+      </c>
+      <c r="D17" s="99">
+        <v>0</v>
+      </c>
+      <c r="E17" s="99">
+        <v>0</v>
+      </c>
+      <c r="F17" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="98">
+        <v>0</v>
+      </c>
+      <c r="D18" s="99">
+        <v>0</v>
+      </c>
+      <c r="E18" s="104">
+        <v>0</v>
+      </c>
+      <c r="F18" s="105"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="98">
+        <v>0</v>
+      </c>
+      <c r="D19" s="99">
+        <v>0</v>
+      </c>
+      <c r="E19" s="104">
+        <v>0</v>
+      </c>
+      <c r="F19" s="105"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="98">
+        <v>0</v>
+      </c>
+      <c r="D20" s="99">
+        <v>0</v>
+      </c>
+      <c r="E20" s="104">
+        <v>0</v>
+      </c>
+      <c r="F20" s="105"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="98">
+        <v>0</v>
+      </c>
+      <c r="D21" s="99">
+        <v>0</v>
+      </c>
+      <c r="E21" s="104">
+        <v>1</v>
+      </c>
+      <c r="F21" s="105"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="98">
+        <v>0</v>
+      </c>
+      <c r="D22" s="99">
+        <v>0</v>
+      </c>
+      <c r="E22" s="104">
+        <v>0</v>
+      </c>
+      <c r="F22" s="105"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="98">
+        <v>0</v>
+      </c>
+      <c r="D23" s="99">
+        <v>0</v>
+      </c>
+      <c r="E23" s="104">
+        <v>0</v>
+      </c>
+      <c r="F23" s="105"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="101">
+        <v>0</v>
+      </c>
+      <c r="D24" s="102">
+        <v>0</v>
+      </c>
+      <c r="E24" s="106">
+        <v>0</v>
+      </c>
+      <c r="F24" s="107"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E20:F20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C21:E21 C19:E19 C3:F17 C24:E24">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:E20">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:E18">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",C18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:E23">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:E22">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",C22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>